--- a/Лабораторная №1.xlsx
+++ b/Лабораторная №1.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azon/AMMZonov1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="15960" windowHeight="15540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Table 1</t>
   </si>
@@ -102,16 +114,49 @@
   </si>
   <si>
     <t>Багаж пассажира характеризуется количеством вещей и общим весом. Ввести информацию об N пассажирах и определить есть ли среди пассажиров такой, у которого самый большой багаж по числу и по весу.</t>
+  </si>
+  <si>
+    <t>Функции</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм сортировки "перемешиванием" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Гномья сортировка "и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка вставками" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка слиянием" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка Шелла" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка расчёской" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Пирамидальная сортировка" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Быстрая сортировка" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Поразрядная сортировка" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка подсчётом" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -123,7 +168,7 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -269,70 +314,125 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff292929"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FF292929"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -458,7 +558,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -467,7 +567,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -476,7 +576,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -540,8 +640,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -549,7 +649,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -557,7 +657,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -576,7 +676,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -584,7 +684,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -612,7 +712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -638,7 +738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -664,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,9 +933,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -852,7 +958,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -871,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,9 +1224,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1134,7 +1246,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1153,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1373,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1399,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1425,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1451,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1477,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1503,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,218 +1516,254 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.6328" style="1" customWidth="1"/>
-    <col min="4" max="4" width="89.6328" style="1" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="89.6640625" style="1" customWidth="1"/>
+    <col min="5" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
-    <row r="2" ht="21.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" ht="64.55" customHeight="1">
-      <c r="A3" s="4">
+    <row r="3" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" ht="50.35" customHeight="1">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="94" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" ht="78.35" customHeight="1">
-      <c r="A5" s="7">
+    <row r="5" spans="1:4" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" ht="50.35" customHeight="1">
-      <c r="A6" s="7">
+    <row r="6" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s" s="9">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" ht="50.35" customHeight="1">
-      <c r="A7" s="7">
+    <row r="7" spans="1:4" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" ht="50.35" customHeight="1">
-      <c r="A8" s="7">
+    <row r="8" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" ht="64.35" customHeight="1">
-      <c r="A9" s="7">
+    <row r="9" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s" s="9">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="10" ht="78.35" customHeight="1">
-      <c r="A10" s="7">
+    <row r="10" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s" s="9">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" ht="50.35" customHeight="1">
-      <c r="A11" s="7">
+    <row r="11" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s" s="9">
+      <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" ht="78.35" customHeight="1">
-      <c r="A12" s="7">
+    <row r="12" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="8">
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s" s="9">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="13" ht="36.35" customHeight="1">
-      <c r="A13" s="7">
+    <row r="13" spans="1:4" ht="98" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s" s="9">
+      <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="14" ht="64.35" customHeight="1">
-      <c r="A14" s="7">
+    <row r="14" spans="1:4" ht="98" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="8">
+      <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="9">
+      <c r="C14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" ht="50.35" customHeight="1">
-      <c r="A15" s="7">
+    <row r="15" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s" s="9">
+      <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
